--- a/Put Portfolios/Today_OnePointFive.xlsx
+++ b/Put Portfolios/Today_OnePointFive.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>699814.9636462462</v>
+        <v>649545.9975908578</v>
       </c>
       <c r="E2" t="n">
-        <v>-289621.7664840767</v>
+        <v>-336941.1970327913</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>629754.1136218563</v>
+        <v>583488.7682101694</v>
       </c>
       <c r="E3" t="n">
-        <v>-289008.5643563007</v>
+        <v>-334492.3712312818</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>560368.439825586</v>
+        <v>518904.7645349661</v>
       </c>
       <c r="E4" t="n">
-        <v>-287720.1860004051</v>
+        <v>-330570.3197242872</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>492139.0524291085</v>
+        <v>456306.4481177278</v>
       </c>
       <c r="E5" t="n">
-        <v>-285275.5212447167</v>
+        <v>-324662.5809593278</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>425708.0240615109</v>
+        <v>396234.6388191868</v>
       </c>
       <c r="E6" t="n">
-        <v>-281032.4974601484</v>
+        <v>-316228.3350756709</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>361844.9226066705</v>
+        <v>339217.6295934707</v>
       </c>
       <c r="E7" t="n">
-        <v>-274221.5467628228</v>
+        <v>-304739.289119189</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>301380.1469973159</v>
+        <v>285730.6354875551</v>
       </c>
       <c r="E8" t="n">
-        <v>-264012.2702200115</v>
+        <v>-289720.2280429068</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>245117.4052490825</v>
+        <v>236161.4520355861</v>
       </c>
       <c r="E9" t="n">
-        <v>-249600.9598160789</v>
+        <v>-270783.356312678</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>193743.9365625326</v>
+        <v>190786.4059811643</v>
       </c>
       <c r="E10" t="n">
-        <v>-230300.3763504629</v>
+        <v>-247652.3471849019</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>147757.0100908895</v>
+        <v>149758.420032389</v>
       </c>
       <c r="E11" t="n">
-        <v>-205613.2506699401</v>
+        <v>-220174.2779514793</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>107419.6953636172</v>
+        <v>113106.8894750406</v>
       </c>
       <c r="E12" t="n">
-        <v>-175276.5132450465</v>
+        <v>-188319.7533266299</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>72750.6515209366</v>
+        <v>80747.47949924972</v>
       </c>
       <c r="E13" t="n">
-        <v>-139271.5049355612</v>
+        <v>-152173.1081202229</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43544.78937660738</v>
+        <v>52499.05469782834</v>
       </c>
       <c r="E14" t="n">
-        <v>-97803.31492772447</v>
+        <v>-111915.4777394464</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>19416.25963656505</v>
+        <v>28104.7079833889</v>
       </c>
       <c r="E15" t="n">
-        <v>-51257.79251560088</v>
+        <v>-67803.76927168801</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-146.9360274956476</v>
+        <v>7254.11017524221</v>
       </c>
       <c r="E16" t="n">
-        <v>-146.9360274956476</v>
+        <v>-20148.31189763684</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-15726.74433771801</v>
+        <v>-10395.04185310058</v>
       </c>
       <c r="E17" t="n">
-        <v>54947.30781444791</v>
+        <v>30708.59125621823</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-27924.84990397036</v>
+        <v>-25198.02256792564</v>
       </c>
       <c r="E18" t="n">
-        <v>113423.2544003615</v>
+        <v>84411.66572359102</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-37322.92938423498</v>
+        <v>-37507.40290699131</v>
       </c>
       <c r="E19" t="n">
-        <v>174699.2270722628</v>
+        <v>140608.3405667232</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-44454.96230085272</v>
+        <v>-47661.02492861029</v>
       </c>
       <c r="E20" t="n">
-        <v>238241.246307811</v>
+        <v>198960.7737273021</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-49791.02130578848</v>
+        <v>-55973.52758354258</v>
       </c>
       <c r="E21" t="n">
-        <v>303579.2394550411</v>
+        <v>259154.3262545677</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-53730.65169578703</v>
+        <v>-62731.04934826511</v>
       </c>
       <c r="E22" t="n">
-        <v>370313.6612172085</v>
+        <v>320902.859672043</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-56603.40081742252</v>
+        <v>-68188.5844280395</v>
       </c>
       <c r="E23" t="n">
-        <v>438114.9642477389</v>
+        <v>383951.3797744664</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-58674.06700397168</v>
+        <v>-72569.4193207136</v>
       </c>
       <c r="E24" t="n">
-        <v>506718.3502133557</v>
+        <v>448076.6000639902</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-60150.57978163184</v>
+        <v>-76066.09591894604</v>
       </c>
       <c r="E25" t="n">
-        <v>575915.8895878615</v>
+        <v>513085.9786479556</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-61192.90883469445</v>
+        <v>-78842.40913591244</v>
       </c>
       <c r="E26" t="n">
-        <v>645547.6126869648</v>
+        <v>578815.7206131871</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-61921.89620650286</v>
+        <v>-81036.02972837586</v>
       </c>
       <c r="E27" t="n">
-        <v>715492.6774673222</v>
+        <v>645128.1552029216</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>671135.175569842</v>
+        <v>672322.9074194491</v>
       </c>
       <c r="E2" t="n">
-        <v>-338786.7870683551</v>
+        <v>-387069.813820117</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>626430.9296014523</v>
+        <v>631711.2947101832</v>
       </c>
       <c r="E3" t="n">
-        <v>-337057.83935223</v>
+        <v>-384440.9072951149</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>582341.092315009</v>
+        <v>591765.8468091787</v>
       </c>
       <c r="E4" t="n">
-        <v>-334714.4829541586</v>
+        <v>-381145.8359618514</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>539001.3880347793</v>
+        <v>552581.4004273682</v>
       </c>
       <c r="E5" t="n">
-        <v>-331620.9935498734</v>
+        <v>-377089.7631093939</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>496554.8543384282</v>
+        <v>514251.8757462366</v>
       </c>
       <c r="E6" t="n">
-        <v>-327634.3335617096</v>
+        <v>-372178.7685562575</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>455147.5959036395</v>
+        <v>476868.1442845051</v>
       </c>
       <c r="E7" t="n">
-        <v>-322608.3983119835</v>
+        <v>-366321.980783721</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>414924.2567150353</v>
+        <v>440516.0499384673</v>
       </c>
       <c r="E8" t="n">
-        <v>-316398.543816073</v>
+        <v>-359433.5558954908</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>376023.508714628</v>
+        <v>405274.6581424417</v>
       </c>
       <c r="E9" t="n">
-        <v>-308866.0981319654</v>
+        <v>-351434.4284572483</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>338573.8324102374</v>
+        <v>371214.7872537269</v>
       </c>
       <c r="E10" t="n">
-        <v>-299882.5807518412</v>
+        <v>-342253.7801116952</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>302689.8198001264</v>
+        <v>338397.8552554533</v>
       </c>
       <c r="E11" t="n">
-        <v>-289333.3996774374</v>
+        <v>-331830.1928757007</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>268469.1704959598</v>
+        <v>306875.0552512628</v>
       </c>
       <c r="E12" t="n">
-        <v>-277120.8552970893</v>
+        <v>-320112.4736456233</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>235990.4864351264</v>
+        <v>276686.8560870587</v>
       </c>
       <c r="E13" t="n">
-        <v>-263166.3456734078</v>
+        <v>-307060.1535755593</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>205311.9063419562</v>
+        <v>247862.8104192114</v>
       </c>
       <c r="E14" t="n">
-        <v>-247411.7320820633</v>
+        <v>-292643.6800091387</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>176470.5637280998</v>
+        <v>220421.6419124676</v>
       </c>
       <c r="E15" t="n">
-        <v>-229819.8810114048</v>
+        <v>-276844.3292816145</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>149482.8054001378</v>
+        <v>194371.575946398</v>
       </c>
       <c r="E16" t="n">
-        <v>-210374.4456548521</v>
+        <v>-259653.8760134161</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>124345.0730002329</v>
+        <v>169710.8739689281</v>
       </c>
       <c r="E17" t="n">
-        <v>-189078.9843702421</v>
+        <v>-241074.058756618</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>101035.3282977124</v>
+        <v>146428.5300511922</v>
       </c>
       <c r="E18" t="n">
-        <v>-165955.5353882478</v>
+        <v>-221115.8834400859</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79514.89283327479</v>
+        <v>124505.0887892166</v>
       </c>
       <c r="E19" t="n">
-        <v>-141042.7771681705</v>
+        <v>-199798.8054677934</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>59730.57236079893</v>
+        <v>103913.5459657912</v>
       </c>
       <c r="E20" t="n">
-        <v>-114393.9039561316</v>
+        <v>-177149.8290569509</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>41616.94418823578</v>
+        <v>84620.29685233819</v>
       </c>
       <c r="E21" t="n">
-        <v>-86074.33844417996</v>
+        <v>-153202.5589361358</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>25098.69873783017</v>
+        <v>66586.10126486589</v>
       </c>
       <c r="E22" t="n">
-        <v>-56159.39021007075</v>
+        <v>-127996.2352893401</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>10092.94330075883</v>
+        <v>49767.03912186525</v>
       </c>
       <c r="E23" t="n">
-        <v>-24731.95196262727</v>
+        <v>-101574.7781980728</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-3488.605800309615</v>
+        <v>34115.43498527572</v>
       </c>
       <c r="E24" t="n">
-        <v>8119.692620819087</v>
+        <v>-73985.86310039429</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-15737.59810465889</v>
+        <v>19580.73466683594</v>
       </c>
       <c r="E25" t="n">
-        <v>42303.89400098462</v>
+        <v>-45280.04418456608</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26747.22914363041</v>
+        <v>6110.321282874649</v>
       </c>
       <c r="E26" t="n">
-        <v>77727.45664652792</v>
+        <v>-15509.93833425935</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-36610.64850833428</v>
+        <v>-6349.737971420637</v>
       </c>
       <c r="E27" t="n">
-        <v>114297.2309663389</v>
+        <v>15270.52164571336</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-45419.60532773576</v>
+        <v>-17854.01964729463</v>
       </c>
       <c r="E28" t="n">
-        <v>151921.4678314522</v>
+        <v>47006.75920410739</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-53263.32984075253</v>
+        <v>-28457.14888171156</v>
       </c>
       <c r="E29" t="n">
-        <v>190510.9370029502</v>
+        <v>79644.14920395844</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-60227.64138329226</v>
+        <v>-38213.28126388333</v>
       </c>
       <c r="E30" t="n">
-        <v>229979.8191449253</v>
+        <v>113128.5360560547</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-66394.26701945318</v>
+        <v>-47175.65982113023</v>
       </c>
       <c r="E31" t="n">
-        <v>270246.3871932792</v>
+        <v>147406.6767330758</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-71840.35097821122</v>
+        <v>-55396.24373726745</v>
       </c>
       <c r="E32" t="n">
-        <v>311233.496919036</v>
+        <v>182426.6120512066</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-76638.13271605375</v>
+        <v>-62925.40433324889</v>
       </c>
       <c r="E33" t="n">
-        <v>352868.9088657082</v>
+        <v>218137.9706894931</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-80854.77049871138</v>
+        <v>-69811.68310066582</v>
       </c>
       <c r="E34" t="n">
-        <v>395085.4647675654</v>
+        <v>254492.2111563442</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-84552.287575353</v>
+        <v>-76101.60613181358</v>
       </c>
       <c r="E35" t="n">
-        <v>437821.1413754386</v>
+        <v>291442.8073594645</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-87787.6190239916</v>
+        <v>-81839.54908489266</v>
       </c>
       <c r="E36" t="n">
-        <v>481019.0036113148</v>
+        <v>328945.3836406534</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-90612.73892836993</v>
+        <v>-87067.64681233487</v>
       </c>
       <c r="E37" t="n">
-        <v>524627.0773914513</v>
+        <v>366957.8051474792</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-93074.84949334728</v>
+        <v>-91825.74192146503</v>
       </c>
       <c r="E38" t="n">
-        <v>568598.1605109887</v>
+        <v>405440.2292726171</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-95216.61584561269</v>
+        <v>-96151.36679194092</v>
       </c>
       <c r="E39" t="n">
-        <v>612889.5878432381</v>
+        <v>444355.1236364091</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-97076.43246441467</v>
+        <v>-100079.753911076</v>
       </c>
       <c r="E40" t="n">
-        <v>657462.9649089511</v>
+        <v>483667.255751542</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-98688.70934133732</v>
+        <v>-103643.8697787074</v>
       </c>
       <c r="E41" t="n">
-        <v>702283.8817165432</v>
+        <v>523343.6591181788</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-100084.1680067815</v>
+        <v>-106874.4680550887</v>
       </c>
       <c r="E42" t="n">
-        <v>747321.6167356138</v>
+        <v>563353.5800760654</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-101290.1394358544</v>
+        <v>-109800.1580600464</v>
       </c>
       <c r="E43" t="n">
-        <v>792548.8389910556</v>
+        <v>603668.4093053758</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-102330.8575299435</v>
+        <v>-112447.4851650577</v>
       </c>
       <c r="E44" t="n">
-        <v>837941.3145814815</v>
+        <v>644261.6014346323</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-103227.74334988</v>
+        <v>-114841.0200410209</v>
       </c>
       <c r="E45" t="n">
-        <v>883477.6224460597</v>
+        <v>685108.5857929372</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-103999.6765516489</v>
+        <v>-117003.4541254294</v>
       </c>
       <c r="E46" t="n">
-        <v>929138.8829288055</v>
+        <v>726186.6709427967</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-104663.2515535445</v>
+        <v>-118955.6990478233</v>
       </c>
       <c r="E47" t="n">
-        <v>974908.5016114248</v>
+        <v>767474.9452546709</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-105233.0168580826</v>
+        <v>-120716.9880983808</v>
       </c>
       <c r="E48" t="n">
-        <v>1020771.929991402</v>
+        <v>808954.1754383813</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-105721.6966793723</v>
+        <v>-122304.9781394201</v>
       </c>
       <c r="E49" t="n">
-        <v>1066716.443854627</v>
+        <v>850606.70463161</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-106140.3946058027</v>
+        <v>-123735.8506428518</v>
       </c>
       <c r="E50" t="n">
-        <v>1112730.939612711</v>
+        <v>892416.3513624463</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-106498.7794777089</v>
+        <v>-125024.4107886252</v>
       </c>
       <c r="E51" t="n">
-        <v>1158805.74842532</v>
+        <v>934368.3104509409</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-106805.2539988179</v>
+        <v>-126184.1837811051</v>
       </c>
       <c r="E52" t="n">
-        <v>1204932.467588725</v>
+        <v>976449.056692729</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-107067.1068462596</v>
+        <v>-127227.5077336799</v>
       </c>
       <c r="E53" t="n">
-        <v>1251103.808425799</v>
+        <v>1018646.251974422</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-107290.6492128431</v>
+        <v>-128165.622638738</v>
       </c>
       <c r="E54" t="n">
-        <v>1297313.45974373</v>
+        <v>1060948.656303632</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-107481.3368215766</v>
+        <v>-129008.7550826045</v>
       </c>
       <c r="E55" t="n">
-        <v>1343555.965819511</v>
+        <v>1103346.043094034</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-107643.878508682</v>
+        <v>-129766.1984853745</v>
       </c>
       <c r="E56" t="n">
-        <v>1389826.617816921</v>
+        <v>1145829.118925532</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-107782.3324886033</v>
+        <v>-130446.3887460597</v>
       </c>
       <c r="E57" t="n">
-        <v>1436121.357521514</v>
+        <v>1188389.447899115</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-107900.191401965</v>
+        <v>-131056.9752563002</v>
       </c>
       <c r="E58" t="n">
-        <v>1482436.692292667</v>
+        <v>1231019.380623142</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-108000.4572129214</v>
+        <v>-131604.8873132067</v>
       </c>
       <c r="E59" t="n">
-        <v>1528769.620166226</v>
+        <v>1273711.987800503</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-108085.7069721913</v>
+        <v>-132096.3960156365</v>
       </c>
       <c r="E60" t="n">
-        <v>1575117.56409147</v>
+        <v>1316460.998332342</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-108158.1504015294</v>
+        <v>-132537.1717702356</v>
       </c>
       <c r="E61" t="n">
-        <v>1621478.314346647</v>
+        <v>1359260.741812011</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-108219.6801885357</v>
+        <v>-132932.3375655533</v>
       </c>
       <c r="E62" t="n">
-        <v>1667849.978244156</v>
+        <v>1402106.095250961</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1007575.264255253</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-298620.5677163614</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>971337.4022939972</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-298301.0316375495</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>935103.979375105</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-297977.0565163743</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>898878.4704772843</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-297645.1673741274</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>862666.4251806207</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-297299.8146307233</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>826476.3151918688</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-296932.5265794076</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>790320.5415294364</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-296530.9022017724</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>754216.5602437628</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-296077.4854473784</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>718188.0595144251</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-295548.5881366488</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>682266.098494008</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-294913.1511169983</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>646490.1033690034</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-294131.7482019352</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>610908.6118667285</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-293155.8416641426</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>575579.6654165462</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-291927.3900742573</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>540570.7681186396</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-290378.8893320963</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>505958.3615746535</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-288433.8978360149</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>471826.8011029861</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-286008.0602676147</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>438266.8577144717</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-283010.6056160615</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>405373.8071480673</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-279346.2581423984</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>373245.1984308115</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-274917.4688195866</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>341978.4169532944</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-269626.852257036</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>311668.1692826124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-263379.7018876506</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>282404.0184902516</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-256086.4546399438</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>254268.0904308443</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-247664.9846592836</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>227333.0548525515</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-238042.6221975088</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>201660.4627166182</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-227157.8162933745</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>177299.4951653394</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-214961.3858045857</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154286.1526628595</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-201417.330266998</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>132642.8871094673</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-186503.1977803227</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>112378.6569158661</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-170210.0299338564</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93489.36631144065</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-152541.9224982142</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>75958.63620795841</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-133515.2545616289</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>59758.84491955859</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-113157.6478099612</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>44852.37272080112</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-91506.72196865105</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>31192.98407703229</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-68608.71257235231</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>18727.28468211709</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-44517.01392719994</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7396.196369879468</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-19290.70419937</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-2863.599301581398</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7006.8981692367</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-12118.28923505315</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>34309.60627583251</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-20435.66008557627</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>62549.63346537697</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-27883.95509757858</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>91658.73649344221</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-34530.87066148952</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>121569.2189695988</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-40442.69942217613</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>152214.7882489798</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-45683.62052951662</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>183531.2651817069</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-50315.13255272851</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>215457.1511985625</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-54395.62067750844</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>247934.0611138502</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-57980.04700065452</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>280907.0328307717</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-61119.75092079653</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>314324.7269506973</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-63862.34566139548</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>348139.5302501658</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-66251.69670737955</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>382307.5772442494</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-68327.96824367059</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>416788.7037480258</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-70127.72441422996</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>451546.3456175341</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-71684.07324922469</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>486547.3948226069</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-73026.84232696069</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>521762.0237849384</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-74182.77655559058</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>557163.4875963762</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-75175.749804261</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>592727.9123877733</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-76026.98342803209</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>628434.0768040697</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-76755.26597441129</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>664263.1922977582</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-77377.16950364468</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>700198.6868085923</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-77907.258982946</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>736225.9953693586</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-78358.29211844945</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>772332.3602739227</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-78741.4077665994</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>808506.6426658403</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-79066.3017228481</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>844739.1467496591</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-79341.38922744121</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>881021.4572851337</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-79573.9539656143</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>917346.290587028</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-79770.28368388891</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>953707.3589088211</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-79935.79280704813</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>990099.2478257294</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-80075.1326333927</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1026517.306039452</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-80192.28982011575</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1062957.546892797</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-80290.67395634546</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1099416.560796635</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-80373.19506787168</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1135891.437725176</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-80442.33191299609</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1172379.698920119</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>474972.9300412352</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-439885.7812215555</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>425203.7907666767</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-430132.5580196799</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>377727.8068852999</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-418086.1794246228</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>332758.9764998221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-403532.6473336666</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>290466.6514223685</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-386302.6099346862</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>250970.8853244596</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-366276.013556161</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>214340.9710541369</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-343383.5653500498</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180596.7935051473</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-317605.3804226053</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>149712.453123004</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-288967.3583283146</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>121621.5404370709</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-257535.9085378136</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>96223.44543840116</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-223411.6410600494</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>73390.14451213645</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-186722.57950988</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>52972.99979480237</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-147617.3617507801</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>34809.2123690403</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-106258.7867001082</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18727.6772888194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-62817.95930389505</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4554.085392249644</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-17469.1887240308</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-7884.801299812882</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>29614.2870603407</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18757.70930444937</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>78263.74153213823</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28226.20993958548</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>128317.6033734361</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-36442.80185663234</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>179623.3739328233</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-43549.63103182478</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>232038.9072340649</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-49677.75130963617</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>285433.1494326875</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-54946.8282914489</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>339686.4349273088</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-59465.19448773584</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>394690.4312074558</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63330.17221372024</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>450347.8159579054</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-66628.591128948</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>506571.7595191117</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-69437.4384141545</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>563285.2747103393</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-71824.59050331757</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>620420.4850976103</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-73849.58549103774</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>677917.8525863241</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-75564.40448823536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>735725.3960655605</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-77014.23814625743</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>793797.9248839724</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-78238.22127653264</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>852096.3042301312</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-79270.12400782014</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>910586.7639752778</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-80138.99234451416</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>969240.2581150179</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-80869.73444336941</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1028031.878492596</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-81483.65154864181</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1086940.323863758</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-81998.91445209456</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1145947.423436739</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-82430.98770116162</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1205037.712664107</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-82793.00467968472</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1264198.058162017</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-83096.09723032717</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1323417.328087809</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-83349.68376035176</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1382686.104034218</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-83561.71984293444</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1441996.43042807</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-83738.91525147817</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1501341.59749596</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-83886.92118985427</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1560715.954034018</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-84010.49124254225</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1620114.746457764</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-84113.61929235273</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1679533.980884387</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>450548.9974371461</v>
+        <v>359163.7098963399</v>
       </c>
       <c r="E2" t="n">
-        <v>-220647.6236332587</v>
+        <v>-278206.6435800733</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>388005.0287781223</v>
+        <v>307601.7457808703</v>
       </c>
       <c r="E3" t="n">
-        <v>-214138.4419763971</v>
+        <v>-261527.6704925009</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>328065.8154678131</v>
+        <v>259048.568063538</v>
       </c>
       <c r="E4" t="n">
-        <v>-205024.5049708212</v>
+        <v>-241839.9110067911</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>271309.6976490566</v>
+        <v>213641.1754448347</v>
       </c>
       <c r="E5" t="n">
-        <v>-192727.4724736923</v>
+        <v>-219006.3664224522</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>218263.2175845634</v>
+        <v>171459.084613125</v>
       </c>
       <c r="E6" t="n">
-        <v>-176720.8022223003</v>
+        <v>-192947.5200511199</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>169358.9350266452</v>
+        <v>132526.1893694266</v>
       </c>
       <c r="E7" t="n">
-        <v>-156571.9344643332</v>
+        <v>-163639.4780917763</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>124904.3100113541</v>
+        <v>96815.11705110822</v>
       </c>
       <c r="E8" t="n">
-        <v>-131973.409163739</v>
+        <v>-131109.6132070525</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85064.90693318294</v>
+        <v>64253.34948870823</v>
       </c>
       <c r="E9" t="n">
-        <v>-102759.6619260249</v>
+        <v>-95430.44356641048</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>49862.38192871799</v>
+        <v>34730.40364749786</v>
       </c>
       <c r="E10" t="n">
-        <v>-68909.03661460459</v>
+        <v>-56712.45220457875</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19185.38945230921</v>
+        <v>8105.452115173438</v>
       </c>
       <c r="E11" t="n">
-        <v>-30532.8787751281</v>
+        <v>-15096.4665338611</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-7189.948174839415</v>
+        <v>-15785.12058306186</v>
       </c>
       <c r="E12" t="n">
-        <v>12144.93391360854</v>
+        <v>29253.89797094568</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-29573.94947241556</v>
+        <v>-37120.60419069172</v>
       </c>
       <c r="E13" t="n">
-        <v>58814.08293191766</v>
+        <v>76159.35156635789</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-48335.42387987105</v>
+        <v>-56089.54919180982</v>
       </c>
       <c r="E14" t="n">
-        <v>109105.7588403474</v>
+        <v>125431.3437682819</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-63874.93900889241</v>
+        <v>-72884.20504319141</v>
       </c>
       <c r="E15" t="n">
-        <v>162619.3940272114</v>
+        <v>176877.6251199424</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-76601.45365130037</v>
+        <v>-87695.87442760725</v>
       </c>
       <c r="E16" t="n">
-        <v>218946.0297006886</v>
+        <v>230306.8929385686</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-86913.52050913077</v>
+        <v>-100711.1808032784</v>
       </c>
       <c r="E17" t="n">
-        <v>277687.1131587435</v>
+        <v>285532.5237659395</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-95185.44902399108</v>
+        <v>-112109.1987217736</v>
       </c>
       <c r="E18" t="n">
-        <v>338468.3349597685</v>
+        <v>342375.4430504863</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-101758.2099538339</v>
+        <v>-122059.3653660529</v>
       </c>
       <c r="E19" t="n">
-        <v>400948.7243458109</v>
+        <v>400666.2136092492</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-106934.4738027066</v>
+        <v>-130720.0745108117</v>
       </c>
       <c r="E20" t="n">
-        <v>464825.6108128235</v>
+        <v>460246.4416675324</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-110976.9803083863</v>
+        <v>-138237.8475165511</v>
       </c>
       <c r="E21" t="n">
-        <v>529836.254623029</v>
+        <v>520969.6058648351</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-114109.3919565928</v>
+        <v>-144746.97714319</v>
       </c>
       <c r="E22" t="n">
-        <v>595756.9932907078</v>
+        <v>582701.4134412383</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-116518.8423358179</v>
+        <v>-150369.546406696</v>
       </c>
       <c r="E23" t="n">
-        <v>662400.6932273678</v>
+        <v>645319.7813807742</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-118359.5062558495</v>
+        <v>-155215.7343619012</v>
       </c>
       <c r="E24" t="n">
-        <v>729613.1796232215</v>
+        <v>708714.5306286111</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-119756.6584579628</v>
+        <v>-159384.3319951088</v>
       </c>
       <c r="E25" t="n">
-        <v>797269.1777369936</v>
+        <v>772786.8701984457</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-120810.8274398636</v>
+        <v>-162963.4031886268</v>
       </c>
       <c r="E26" t="n">
-        <v>865268.1590709781</v>
+        <v>837448.7362079697</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-121601.7758656812</v>
+        <v>-166031.0371701403</v>
       </c>
       <c r="E27" t="n">
-        <v>933530.3609610456</v>
+        <v>902622.0394294984</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-122192.1421742848</v>
+        <v>-168656.1494657677</v>
       </c>
       <c r="E28" t="n">
-        <v>1001993.144968327</v>
+        <v>968237.864336913</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-122630.6575556501</v>
+        <v>-170899.2978426821</v>
       </c>
       <c r="E29" t="n">
-        <v>1070607.779902847</v>
+        <v>1034235.653163041</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-122954.9099425181</v>
+        <v>-172813.4879257845</v>
       </c>
       <c r="E30" t="n">
-        <v>1139336.677831864</v>
+        <v>1100562.40028298</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-123193.6652979247</v>
+        <v>-174444.95008903</v>
       </c>
       <c r="E31" t="n">
-        <v>1208151.072792343</v>
+        <v>1167171.875322777</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-123368.7801258494</v>
+        <v>-175833.8749176118</v>
       </c>
       <c r="E32" t="n">
-        <v>1277029.108280304</v>
+        <v>1234023.887697237</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-123496.7515738091</v>
+        <v>-177015.0991200811</v>
       </c>
       <c r="E33" t="n">
-        <v>1345954.287148229</v>
+        <v>1301083.60069781</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-123589.9560562018</v>
+        <v>-178018.7373708717</v>
       </c>
       <c r="E34" t="n">
-        <v>1414914.232981722</v>
+        <v>1368320.899650062</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-123657.6267119073</v>
+        <v>-178870.7583225592</v>
       </c>
       <c r="E35" t="n">
-        <v>1483899.712641902</v>
+        <v>1435709.815901416</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-123706.6162907524</v>
+        <v>-179593.5050795767</v>
       </c>
       <c r="E36" t="n">
-        <v>1552903.873378942</v>
+        <v>1503228.006347441</v>
       </c>
     </row>
   </sheetData>
